--- a/biology/Botanique/Heptacodium_miconioides/Heptacodium_miconioides.xlsx
+++ b/biology/Botanique/Heptacodium_miconioides/Heptacodium_miconioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heptacodium miconioides (chinois : 七子花 ; pinyin : qī zǐ huā ; litt. « fleur à sept enfants ») est un petit arbre originaire de Chine de la famille des Caprifoliaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est classée dans la tribu Linnaeeae de la famille des Caprifoliacées. Elle est l'espèce-type du genre.
 Heptacodium miconioides a été collectée en Chine dans le Yunnan lors de l'expédition de Ernest Henry Wilson en 1907. Elle a servi à la description du genre par Alfred Rehder en 1916.
@@ -545,14 +559,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Heptacodium miconioides est un petit arbre ou grand arbuste caduc, aux feuilles opposées, pouvant atteindre sept à huit mètres de haut.
 Son écorce, qui desquame en grands lambeaux, est particulièrement caractéristique et décorative.
 Sa floraison débute à la fin de l'été.
 Les inflorescences sont des capitules à sept fleurs, ce qui est à l'origine du nom générique : έπτά (sept) et κώδεια (têtes).
 Les fleurs sont blanches, à cinq sépales avec une corolle tubulaire et cinq étamines. Elles sont légèrement parfumées.
-Cette espèce compte 28 chromosomes[1].
+Cette espèce compte 28 chromosomes.
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Heptacodium miconioides est originaire de Chine (Hubei principalement, mais aussi Anhui, Yunnan et Zhejiang).
 Il s'agit d'une plante forestière ou de sous-bois, de sols acides et riches.
